--- a/Minutos.xlsx
+++ b/Minutos.xlsx
@@ -14,142 +14,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
     <t>3.07</t>
   </si>
   <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
     <t>1.57</t>
   </si>
   <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
     <t>2.25</t>
   </si>
   <si>
+    <t>TDICC</t>
+  </si>
+  <si>
     <t>3.50</t>
   </si>
   <si>
+    <t>TDICD</t>
+  </si>
+  <si>
     <t>4.75</t>
   </si>
   <si>
+    <t>TDICE</t>
+  </si>
+  <si>
     <t>6.00</t>
   </si>
   <si>
+    <t>TDICF</t>
+  </si>
+  <si>
     <t>9.75</t>
   </si>
   <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
     <t>3.82</t>
   </si>
   <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
     <t>5.07</t>
   </si>
   <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
     <t>6.32</t>
   </si>
   <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
     <t>7.57</t>
   </si>
   <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
     <t>11.32</t>
   </si>
   <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
     <t>1.50</t>
   </si>
   <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
     <t>14.07</t>
   </si>
   <si>
+    <t>TDICU</t>
+  </si>
+  <si>
     <t>23.00</t>
   </si>
   <si>
-    <t>0.07</t>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>MTCSC</t>
+  </si>
+  <si>
+    <t>CIGCU</t>
   </si>
   <si>
     <t>2000.00</t>
   </si>
   <si>
+    <t>CIVNA</t>
+  </si>
+  <si>
+    <t>CI90X</t>
+  </si>
+  <si>
     <t>0.83</t>
   </si>
   <si>
+    <t>CIINT</t>
+  </si>
+  <si>
     <t>0.28</t>
   </si>
   <si>
+    <t>CISNA</t>
+  </si>
+  <si>
     <t>0.17</t>
   </si>
   <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>MPMVB</t>
-  </si>
-  <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>TDICB</t>
-  </si>
-  <si>
-    <t>TDICC</t>
-  </si>
-  <si>
-    <t>TDICD</t>
-  </si>
-  <si>
-    <t>TDICE</t>
-  </si>
-  <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
     <t>PKPID</t>
   </si>
   <si>
-    <t>CIGCU</t>
-  </si>
-  <si>
-    <t>CIVNA</t>
-  </si>
-  <si>
-    <t>CI90X</t>
-  </si>
-  <si>
-    <t>CIINT</t>
-  </si>
-  <si>
-    <t>CISNA</t>
+    <t>SÍ</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -202,210 +202,208 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Minutos.xlsx
+++ b/Minutos.xlsx
@@ -12,84 +12,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>3.07</t>
+    <t>4.96</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.57</t>
+    <t>1.93</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>MTCOU</t>
+    <t>2.68</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>2.25</t>
+    <t>3.42</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>3.50</t>
+    <t>5.32</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>4.75</t>
+    <t>7.22</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>6.00</t>
+    <t>9.12</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>9.75</t>
+    <t>14.82</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>3.82</t>
+    <t>6.10</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>5.07</t>
+    <t>8.00</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>6.32</t>
+    <t>9.90</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>7.57</t>
+    <t>11.80</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>11.32</t>
+    <t>17.50</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -98,27 +98,27 @@
     <t>TDICA</t>
   </si>
   <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>14.07</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -131,19 +131,37 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.83</t>
+    <t>0.85</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>0.28</t>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.17</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -194,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -208,10 +226,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -227,172 +245,172 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>41</v>
@@ -400,10 +418,26 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Minutos.xlsx
+++ b/Minutos.xlsx
@@ -12,84 +12,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>4.96</t>
+    <t>3.07</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.93</t>
+    <t>1.57</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>2.68</t>
+    <t>MTCOU</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>3.42</t>
+    <t>2.25</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>5.32</t>
+    <t>3.50</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>7.22</t>
+    <t>4.75</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>9.12</t>
+    <t>6.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>14.82</t>
+    <t>9.75</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>6.10</t>
+    <t>3.82</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>8.00</t>
+    <t>5.07</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>9.90</t>
+    <t>6.32</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>11.80</t>
+    <t>7.57</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>17.50</t>
+    <t>11.32</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -98,13 +98,13 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>2.28</t>
+    <t>1.50</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>25.40</t>
+    <t>14.07</t>
   </si>
   <si>
     <t>TDICU</t>
@@ -116,7 +116,7 @@
     <t>MPCSC</t>
   </si>
   <si>
-    <t>1.50</t>
+    <t>MTCSC</t>
   </si>
   <si>
     <t>CIGCU</t>
@@ -131,37 +131,19 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.85</t>
+    <t>0.83</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>CIROZ</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>CIRRZ</t>
+    <t>0.28</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>CISIN</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>CIRSO</t>
+    <t>0.17</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -212,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -226,10 +208,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -245,172 +227,172 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>41</v>
@@ -418,26 +400,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
